--- a/Checklist/Checklist_Youtube_Daria_Bulakh.xlsx
+++ b/Checklist/Checklist_Youtube_Daria_Bulakh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="914"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="914" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Check list Функциональное" sheetId="14" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -86,9 +86,6 @@
   <si>
     <t>Safari iOS 16.6.1 (20G81) 
 телефон</t>
-  </si>
-  <si>
-    <t>Не пройдено</t>
   </si>
   <si>
     <t>Элементы (меню, кнопки, изображения) не выходят за пределы экрана на разных устройствах</t>
@@ -1076,7 +1073,7 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13"/>
     </row>
@@ -1131,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -1148,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
@@ -1165,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
@@ -1179,7 +1176,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -1188,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1205,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1222,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="13"/>
     </row>
@@ -1245,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -1262,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>4</v>
@@ -1279,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="13"/>
     </row>
@@ -1302,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>4</v>
@@ -1319,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>4</v>
@@ -1336,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="13"/>
     </row>
@@ -1359,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>4</v>
@@ -1376,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>4</v>
@@ -1393,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="13"/>
     </row>
@@ -1416,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>4</v>
@@ -1433,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>4</v>
@@ -1450,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>4</v>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="13"/>
     </row>
@@ -1473,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -1490,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -1524,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -1541,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="13"/>
     </row>
@@ -1564,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -1581,7 +1578,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>4</v>
@@ -1598,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>4</v>
@@ -1615,7 +1612,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>4</v>
@@ -1632,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>4</v>
@@ -1663,7 +1660,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="13"/>
     </row>
@@ -1672,7 +1669,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>4</v>
@@ -1689,7 +1686,7 @@
         <v>31</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1700,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>4</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="13"/>
     </row>
@@ -1723,7 +1720,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>4</v>
@@ -1740,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>4</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="13"/>
     </row>
@@ -1763,7 +1760,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>4</v>
@@ -1780,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>4</v>
@@ -1797,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>4</v>
@@ -1814,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>4</v>
@@ -1828,6 +1825,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
@@ -1835,13 +1839,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="13"/>
     </row>
@@ -1908,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -1925,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
@@ -1942,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
@@ -1956,7 +1953,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -1965,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1982,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1999,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="13"/>
     </row>
@@ -2022,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -2039,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>4</v>
@@ -2056,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="13"/>
     </row>
@@ -2079,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>4</v>
@@ -2096,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>4</v>
@@ -2113,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
@@ -2130,7 +2127,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>4</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="13"/>
     </row>
@@ -2153,7 +2150,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>4</v>
@@ -2170,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -2187,7 +2184,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>4</v>
@@ -2204,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>4</v>
@@ -2267,10 +2264,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13"/>
     </row>
@@ -2288,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -2302,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
@@ -2313,7 +2310,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13"/>
     </row>
@@ -2322,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -2336,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -2347,7 +2344,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="13"/>
     </row>
@@ -2356,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -2370,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="13"/>
     </row>
@@ -2390,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>4</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13"/>
     </row>
@@ -2410,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>4</v>
@@ -2424,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>4</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="13"/>
     </row>
@@ -2444,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
@@ -2458,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>4</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="13"/>
     </row>
@@ -2478,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>4</v>
@@ -2492,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -2503,7 +2500,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="13"/>
     </row>
@@ -2512,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>4</v>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="13"/>
     </row>
@@ -2532,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>4</v>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="13"/>
     </row>
@@ -2552,7 +2549,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -2566,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="13"/>
     </row>
@@ -2586,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -2600,7 +2597,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="13"/>
     </row>
@@ -2620,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -2634,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>4</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="13"/>
     </row>
@@ -2654,7 +2651,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>4</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="13"/>
     </row>
@@ -2674,7 +2671,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>4</v>
@@ -2685,6 +2682,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A17:B17"/>
@@ -2694,14 +2699,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2713,8 +2710,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2771,13 +2768,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
@@ -2822,13 +2819,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.75" thickBot="1">
@@ -2868,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -2876,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -2885,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
@@ -2936,13 +2933,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -2953,13 +2950,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -2970,13 +2967,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
